--- a/广丰周数据汇总/深圳+广丰项目周数据(1).xlsx
+++ b/广丰周数据汇总/深圳+广丰项目周数据(1).xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\LX18062102\Documents\WeChat Files\Liachan\FileStorage\File\2019-07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyancheng/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D259EAB-D466-BB46-AA65-E74A7C296176}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18030" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18040" windowHeight="7960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="每周填写" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>城市</t>
   </si>
@@ -70,11 +79,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,11 +204,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -231,7 +240,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -243,19 +252,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -318,7 +327,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="简约镶边列系列8" count="3">
+    <tableStyle name="简约镶边列系列8" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
@@ -592,30 +601,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="1" customWidth="1"/>
-    <col min="12" max="13" width="15.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="12.75" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="15.1640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -659,7 +668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="25" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
@@ -709,7 +718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="25" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -761,7 +770,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="25" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
@@ -813,20 +822,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+    <row r="5" spans="1:15" ht="25" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8">
+        <v>38</v>
+      </c>
       <c r="E5" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="10" t="str">
+        <v>175</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3199</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4750</v>
+      </c>
+      <c r="H5" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v>0.21714285714285714</v>
       </c>
       <c r="I5" s="12">
         <v>1</v>
@@ -853,7 +874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="25" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
@@ -892,7 +913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="25" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
@@ -930,7 +951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="25" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="7"/>
@@ -970,7 +991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="25" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
@@ -1010,7 +1031,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="25" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
@@ -1050,7 +1071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="25" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
@@ -1090,7 +1111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="25" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
@@ -1129,7 +1150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="25" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
@@ -1167,7 +1188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="25" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
@@ -1207,7 +1228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="25" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
@@ -1247,7 +1268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="25" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
@@ -1287,7 +1308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="25" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
@@ -1326,7 +1347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="25" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
@@ -1364,7 +1385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="25" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="7"/>
@@ -1404,7 +1425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="25" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="7"/>
@@ -1444,7 +1465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="25" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="7"/>
@@ -1484,7 +1505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="25" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="7"/>
@@ -1524,7 +1545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="25" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="7"/>
@@ -1564,7 +1585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" ht="25" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7"/>
@@ -1604,7 +1625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="25" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="7"/>
@@ -1644,7 +1665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="25" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="7"/>
@@ -1684,7 +1705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="25" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
@@ -1723,7 +1744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="25" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="7"/>
@@ -1761,7 +1782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="25" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="7"/>
@@ -1801,7 +1822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="25" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="7"/>
@@ -1841,7 +1862,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="25" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="7"/>
@@ -1881,7 +1902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="25" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="7"/>
@@ -1920,7 +1941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="25" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="7"/>
@@ -1941,7 +1962,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="25" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7"/>
@@ -1962,7 +1983,7 @@
       <c r="M34" s="17"/>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="25" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="7"/>
@@ -1983,7 +2004,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="25" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="7"/>
@@ -2004,7 +2025,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="25" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="7"/>
@@ -2025,7 +2046,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="25" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="7"/>
@@ -2046,7 +2067,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="25" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="7"/>
@@ -2067,7 +2088,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="25" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="7"/>
@@ -2088,7 +2109,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="25" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="7"/>
@@ -2109,7 +2130,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="25" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="7"/>
@@ -2130,7 +2151,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="25" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="7"/>
@@ -2151,7 +2172,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="25" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="7"/>
@@ -2172,7 +2193,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="25" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="7"/>
@@ -2193,7 +2214,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="25" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="7"/>
@@ -2214,7 +2235,7 @@
       <c r="M46" s="17"/>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="25" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="7"/>
@@ -2235,7 +2256,7 @@
       <c r="M47" s="17"/>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="25" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="7"/>
@@ -2256,7 +2277,7 @@
       <c r="M48" s="17"/>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="25" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="7"/>
@@ -2277,7 +2298,7 @@
       <c r="M49" s="17"/>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="25" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="7"/>
@@ -2298,7 +2319,7 @@
       <c r="M50" s="17"/>
       <c r="N50" s="8"/>
     </row>
-    <row r="51" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="25" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="7"/>
@@ -2319,7 +2340,7 @@
       <c r="M51" s="17"/>
       <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="25" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="7"/>
@@ -2340,7 +2361,7 @@
       <c r="M52" s="17"/>
       <c r="N52" s="8"/>
     </row>
-    <row r="53" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="25" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="7"/>
@@ -2361,7 +2382,7 @@
       <c r="M53" s="17"/>
       <c r="N53" s="8"/>
     </row>
-    <row r="54" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="25" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="7"/>
@@ -2382,7 +2403,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="8"/>
     </row>
-    <row r="55" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="25" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="7"/>
@@ -2403,7 +2424,7 @@
       <c r="M55" s="17"/>
       <c r="N55" s="8"/>
     </row>
-    <row r="56" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="25" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="7"/>
@@ -2424,7 +2445,7 @@
       <c r="M56" s="17"/>
       <c r="N56" s="8"/>
     </row>
-    <row r="57" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="25" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="7"/>
@@ -2445,7 +2466,7 @@
       <c r="M57" s="17"/>
       <c r="N57" s="8"/>
     </row>
-    <row r="58" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="25" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="7"/>
@@ -2466,7 +2487,7 @@
       <c r="M58" s="17"/>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="25" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="7"/>
@@ -2487,7 +2508,7 @@
       <c r="M59" s="17"/>
       <c r="N59" s="8"/>
     </row>
-    <row r="60" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="25" customHeight="1">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="7"/>
@@ -2508,7 +2529,7 @@
       <c r="M60" s="17"/>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="25" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="7"/>
@@ -2529,7 +2550,7 @@
       <c r="M61" s="17"/>
       <c r="N61" s="8"/>
     </row>
-    <row r="62" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="25" customHeight="1">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="7"/>
@@ -2550,7 +2571,7 @@
       <c r="M62" s="17"/>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="25" customHeight="1">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="7"/>
@@ -2571,7 +2592,7 @@
       <c r="M63" s="17"/>
       <c r="N63" s="8"/>
     </row>
-    <row r="64" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="25" customHeight="1">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="7"/>
@@ -2592,7 +2613,7 @@
       <c r="M64" s="17"/>
       <c r="N64" s="8"/>
     </row>
-    <row r="65" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" ht="25" customHeight="1">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="7"/>
@@ -2613,7 +2634,7 @@
       <c r="M65" s="17"/>
       <c r="N65" s="8"/>
     </row>
-    <row r="66" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" ht="25" customHeight="1">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="7"/>
@@ -2634,7 +2655,7 @@
       <c r="M66" s="17"/>
       <c r="N66" s="8"/>
     </row>
-    <row r="67" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" ht="25" customHeight="1">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="7"/>
@@ -2655,7 +2676,7 @@
       <c r="M67" s="17"/>
       <c r="N67" s="8"/>
     </row>
-    <row r="68" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" ht="25" customHeight="1">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="7"/>
@@ -2676,7 +2697,7 @@
       <c r="M68" s="17"/>
       <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" ht="25" customHeight="1">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="7"/>
@@ -2697,7 +2718,7 @@
       <c r="M69" s="17"/>
       <c r="N69" s="8"/>
     </row>
-    <row r="70" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" ht="25" customHeight="1">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="7"/>
@@ -2718,7 +2739,7 @@
       <c r="M70" s="17"/>
       <c r="N70" s="8"/>
     </row>
-    <row r="71" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" ht="25" customHeight="1">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="7"/>
@@ -2739,7 +2760,7 @@
       <c r="M71" s="17"/>
       <c r="N71" s="8"/>
     </row>
-    <row r="72" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" ht="25" customHeight="1">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="7"/>
@@ -2760,7 +2781,7 @@
       <c r="M72" s="17"/>
       <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" ht="25" customHeight="1">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="7"/>
@@ -2781,7 +2802,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="8"/>
     </row>
-    <row r="74" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" ht="25" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="7"/>
@@ -2802,7 +2823,7 @@
       <c r="M74" s="17"/>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" ht="25" customHeight="1">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="7"/>
@@ -2823,7 +2844,7 @@
       <c r="M75" s="17"/>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" ht="25" customHeight="1">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="7"/>
@@ -2844,7 +2865,7 @@
       <c r="M76" s="17"/>
       <c r="N76" s="8"/>
     </row>
-    <row r="77" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14" ht="25" customHeight="1">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="7"/>
@@ -2865,7 +2886,7 @@
       <c r="M77" s="17"/>
       <c r="N77" s="8"/>
     </row>
-    <row r="78" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14" ht="25" customHeight="1">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="7"/>
@@ -2886,7 +2907,7 @@
       <c r="M78" s="17"/>
       <c r="N78" s="8"/>
     </row>
-    <row r="79" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14" ht="25" customHeight="1">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="7"/>
@@ -2907,7 +2928,7 @@
       <c r="M79" s="17"/>
       <c r="N79" s="8"/>
     </row>
-    <row r="80" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" ht="25" customHeight="1">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="7"/>
@@ -2928,7 +2949,7 @@
       <c r="M80" s="17"/>
       <c r="N80" s="8"/>
     </row>
-    <row r="81" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" ht="25" customHeight="1">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="C81" s="7"/>
@@ -2949,7 +2970,7 @@
       <c r="M81" s="17"/>
       <c r="N81" s="8"/>
     </row>
-    <row r="82" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" ht="25" customHeight="1">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="7"/>
@@ -2970,7 +2991,7 @@
       <c r="M82" s="17"/>
       <c r="N82" s="8"/>
     </row>
-    <row r="83" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" ht="25" customHeight="1">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="C83" s="7"/>
@@ -2991,7 +3012,7 @@
       <c r="M83" s="17"/>
       <c r="N83" s="8"/>
     </row>
-    <row r="84" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14" ht="25" customHeight="1">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="7"/>
@@ -3012,7 +3033,7 @@
       <c r="M84" s="17"/>
       <c r="N84" s="8"/>
     </row>
-    <row r="85" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" ht="25" customHeight="1">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="7"/>
@@ -3033,7 +3054,7 @@
       <c r="M85" s="17"/>
       <c r="N85" s="8"/>
     </row>
-    <row r="86" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14" ht="25" customHeight="1">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="C86" s="7"/>
@@ -3054,7 +3075,7 @@
       <c r="M86" s="17"/>
       <c r="N86" s="8"/>
     </row>
-    <row r="87" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14" ht="25" customHeight="1">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="C87" s="7"/>
@@ -3075,7 +3096,7 @@
       <c r="M87" s="17"/>
       <c r="N87" s="8"/>
     </row>
-    <row r="88" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" ht="25" customHeight="1">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="C88" s="7"/>
@@ -3096,7 +3117,7 @@
       <c r="M88" s="17"/>
       <c r="N88" s="8"/>
     </row>
-    <row r="89" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" ht="25" customHeight="1">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="C89" s="7"/>
@@ -3117,7 +3138,7 @@
       <c r="M89" s="17"/>
       <c r="N89" s="8"/>
     </row>
-    <row r="90" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" ht="25" customHeight="1">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="7"/>
@@ -3138,7 +3159,7 @@
       <c r="M90" s="17"/>
       <c r="N90" s="8"/>
     </row>
-    <row r="91" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" ht="25" customHeight="1">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="C91" s="7"/>
@@ -3159,7 +3180,7 @@
       <c r="M91" s="17"/>
       <c r="N91" s="8"/>
     </row>
-    <row r="92" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:14" ht="25" customHeight="1">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="C92" s="7"/>
@@ -3180,7 +3201,7 @@
       <c r="M92" s="17"/>
       <c r="N92" s="8"/>
     </row>
-    <row r="93" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" ht="25" customHeight="1">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="C93" s="7"/>
@@ -3201,7 +3222,7 @@
       <c r="M93" s="17"/>
       <c r="N93" s="8"/>
     </row>
-    <row r="94" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:14" ht="25" customHeight="1">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="C94" s="7"/>
@@ -3222,7 +3243,7 @@
       <c r="M94" s="17"/>
       <c r="N94" s="8"/>
     </row>
-    <row r="95" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:14" ht="25" customHeight="1">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="7"/>
@@ -3243,7 +3264,7 @@
       <c r="M95" s="17"/>
       <c r="N95" s="8"/>
     </row>
-    <row r="96" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:14" ht="25" customHeight="1">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="7"/>
@@ -3264,7 +3285,7 @@
       <c r="M96" s="17"/>
       <c r="N96" s="8"/>
     </row>
-    <row r="97" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:14" ht="25" customHeight="1">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="C97" s="7"/>
@@ -3285,7 +3306,7 @@
       <c r="M97" s="17"/>
       <c r="N97" s="8"/>
     </row>
-    <row r="98" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:14" ht="25" customHeight="1">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="7"/>
@@ -3306,7 +3327,7 @@
       <c r="M98" s="17"/>
       <c r="N98" s="8"/>
     </row>
-    <row r="99" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:14" ht="25" customHeight="1">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="7"/>
@@ -3327,7 +3348,7 @@
       <c r="M99" s="17"/>
       <c r="N99" s="8"/>
     </row>
-    <row r="100" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:14" ht="25" customHeight="1">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" s="7"/>
@@ -3348,7 +3369,7 @@
       <c r="M100" s="17"/>
       <c r="N100" s="8"/>
     </row>
-    <row r="101" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:14" ht="25" customHeight="1">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="C101" s="7"/>
@@ -3369,7 +3390,7 @@
       <c r="M101" s="17"/>
       <c r="N101" s="8"/>
     </row>
-    <row r="102" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:14" ht="25" customHeight="1">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="C102" s="7"/>
@@ -3390,7 +3411,7 @@
       <c r="M102" s="17"/>
       <c r="N102" s="8"/>
     </row>
-    <row r="103" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:14" ht="25" customHeight="1">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="7"/>
@@ -3411,7 +3432,7 @@
       <c r="M103" s="17"/>
       <c r="N103" s="8"/>
     </row>
-    <row r="104" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:14" ht="25" customHeight="1">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="C104" s="7"/>
@@ -3432,7 +3453,7 @@
       <c r="M104" s="17"/>
       <c r="N104" s="8"/>
     </row>
-    <row r="105" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:14" ht="25" customHeight="1">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="7"/>
@@ -3453,7 +3474,7 @@
       <c r="M105" s="17"/>
       <c r="N105" s="8"/>
     </row>
-    <row r="106" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:14" ht="25" customHeight="1">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="7"/>
@@ -3474,7 +3495,7 @@
       <c r="M106" s="17"/>
       <c r="N106" s="8"/>
     </row>
-    <row r="107" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:14" ht="25" customHeight="1">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="C107" s="7"/>
@@ -3495,7 +3516,7 @@
       <c r="M107" s="17"/>
       <c r="N107" s="8"/>
     </row>
-    <row r="108" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:14" ht="25" customHeight="1">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="7"/>
@@ -3516,7 +3537,7 @@
       <c r="M108" s="17"/>
       <c r="N108" s="8"/>
     </row>
-    <row r="109" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:14" ht="25" customHeight="1">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="C109" s="7"/>
@@ -3537,7 +3558,7 @@
       <c r="M109" s="17"/>
       <c r="N109" s="8"/>
     </row>
-    <row r="110" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:14" ht="25" customHeight="1">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="7"/>
@@ -3558,7 +3579,7 @@
       <c r="M110" s="17"/>
       <c r="N110" s="8"/>
     </row>
-    <row r="111" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:14" ht="25" customHeight="1">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="7"/>
@@ -3579,7 +3600,7 @@
       <c r="M111" s="17"/>
       <c r="N111" s="8"/>
     </row>
-    <row r="112" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:14" ht="25" customHeight="1">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="C112" s="7"/>
@@ -3600,7 +3621,7 @@
       <c r="M112" s="17"/>
       <c r="N112" s="8"/>
     </row>
-    <row r="113" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:14" ht="25" customHeight="1">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="C113" s="7"/>
@@ -3621,7 +3642,7 @@
       <c r="M113" s="17"/>
       <c r="N113" s="8"/>
     </row>
-    <row r="114" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:14" ht="25" customHeight="1">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="C114" s="7"/>
@@ -3642,7 +3663,7 @@
       <c r="M114" s="17"/>
       <c r="N114" s="8"/>
     </row>
-    <row r="115" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:14" ht="25" customHeight="1">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="C115" s="7"/>
@@ -3663,7 +3684,7 @@
       <c r="M115" s="17"/>
       <c r="N115" s="8"/>
     </row>
-    <row r="116" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:14" ht="25" customHeight="1">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="C116" s="7"/>
@@ -3684,7 +3705,7 @@
       <c r="M116" s="17"/>
       <c r="N116" s="8"/>
     </row>
-    <row r="117" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:14" ht="25" customHeight="1">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="C117" s="7"/>
@@ -3705,7 +3726,7 @@
       <c r="M117" s="17"/>
       <c r="N117" s="8"/>
     </row>
-    <row r="118" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:14" ht="25" customHeight="1">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="C118" s="7"/>
@@ -3726,7 +3747,7 @@
       <c r="M118" s="17"/>
       <c r="N118" s="8"/>
     </row>
-    <row r="119" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:14" ht="25" customHeight="1">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="C119" s="7"/>
@@ -3747,7 +3768,7 @@
       <c r="M119" s="17"/>
       <c r="N119" s="8"/>
     </row>
-    <row r="120" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:14" ht="25" customHeight="1">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="7"/>
@@ -3768,7 +3789,7 @@
       <c r="M120" s="17"/>
       <c r="N120" s="8"/>
     </row>
-    <row r="121" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:14" ht="25" customHeight="1">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="7"/>
@@ -3789,7 +3810,7 @@
       <c r="M121" s="17"/>
       <c r="N121" s="8"/>
     </row>
-    <row r="122" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:14" ht="25" customHeight="1">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="7"/>
@@ -3810,7 +3831,7 @@
       <c r="M122" s="17"/>
       <c r="N122" s="8"/>
     </row>
-    <row r="123" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:14" ht="25" customHeight="1">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="7"/>
@@ -3831,7 +3852,7 @@
       <c r="M123" s="17"/>
       <c r="N123" s="8"/>
     </row>
-    <row r="124" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:14" ht="25" customHeight="1">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="7"/>
@@ -3852,7 +3873,7 @@
       <c r="M124" s="17"/>
       <c r="N124" s="8"/>
     </row>
-    <row r="125" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:14" ht="25" customHeight="1">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="7"/>
@@ -3873,7 +3894,7 @@
       <c r="M125" s="17"/>
       <c r="N125" s="8"/>
     </row>
-    <row r="126" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:14" ht="25" customHeight="1">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="7"/>
